--- a/10. ADO.NET/Homework/ADOdotNetHW/HomeworkTask6/db.xlsx
+++ b/10. ADO.NET/Homework/ADOdotNetHW/HomeworkTask6/db.xlsx
@@ -1,24 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="9210"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="A266FF2A662E84b639DA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Svetlin Nakov</t>
+  </si>
+  <si>
+    <t>Doncho Minkov</t>
+  </si>
+  <si>
+    <t>Nikolay Kostov</t>
+  </si>
+  <si>
+    <t>George Georgiev</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -37,18 +75,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -95,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -127,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -336,15 +408,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>